--- a/data/Subset1_WithDialogActs/Math JP3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math JP3 transcript.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2445,12 +2445,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7363,12 +7363,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7699,12 +7699,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7825,12 +7825,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8497,12 +8497,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8749,12 +8749,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8917,12 +8917,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9799,12 +9799,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9925,12 +9925,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9967,12 +9967,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11353,12 +11353,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11479,12 +11479,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11899,12 +11899,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12277,12 +12277,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12487,12 +12487,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12781,12 +12781,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13075,12 +13075,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13159,12 +13159,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13495,12 +13495,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13537,12 +13537,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13621,12 +13621,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13747,12 +13747,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14251,12 +14251,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14293,12 +14293,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14419,12 +14419,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14797,12 +14797,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14881,12 +14881,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15133,12 +15133,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15889,12 +15889,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15973,12 +15973,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16183,12 +16183,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16351,12 +16351,12 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16519,12 +16519,12 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16561,12 +16561,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16939,12 +16939,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17107,12 +17107,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17653,12 +17653,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18287,12 +18287,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18413,12 +18413,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18581,12 +18581,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19043,12 +19043,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19505,12 +19505,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19883,12 +19883,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20009,12 +20009,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21521,12 +21521,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21857,12 +21857,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21899,12 +21899,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22319,12 +22319,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22529,12 +22529,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22697,12 +22697,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22823,12 +22823,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23411,12 +23411,12 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23835,12 +23835,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24927,12 +24927,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25221,12 +25221,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25389,12 +25389,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25473,12 +25473,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25557,12 +25557,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25809,12 +25809,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26523,12 +26523,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26565,12 +26565,12 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26607,12 +26607,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26821,12 +26821,12 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26905,12 +26905,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27661,12 +27661,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27997,12 +27997,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28585,12 +28585,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28711,12 +28711,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29215,12 +29215,12 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29425,12 +29425,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29467,12 +29467,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29635,12 +29635,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29719,12 +29719,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29803,12 +29803,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29887,12 +29887,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30013,12 +30013,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30097,12 +30097,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30731,12 +30731,12 @@
       <c r="H721" t="inlineStr"/>
       <c r="I721" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30773,12 +30773,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30899,12 +30899,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31151,12 +31151,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32033,12 +32033,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32789,12 +32789,12 @@
       <c r="H770" t="inlineStr"/>
       <c r="I770" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32999,12 +32999,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34007,12 +34007,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34301,12 +34301,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34385,12 +34385,12 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34851,12 +34851,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34935,12 +34935,12 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35355,12 +35355,12 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35859,12 +35859,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36615,12 +36615,12 @@
       <c r="H861" t="inlineStr"/>
       <c r="I861" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36657,12 +36657,12 @@
       <c r="H862" t="inlineStr"/>
       <c r="I862" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36745,12 +36745,12 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36787,12 +36787,12 @@
       <c r="H865" t="inlineStr"/>
       <c r="I865" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36955,12 +36955,12 @@
       <c r="H869" t="inlineStr"/>
       <c r="I869" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37333,12 +37333,12 @@
       <c r="H878" t="inlineStr"/>
       <c r="I878" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37459,12 +37459,12 @@
       <c r="H881" t="inlineStr"/>
       <c r="I881" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37543,12 +37543,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37585,12 +37585,12 @@
       <c r="H884" t="inlineStr"/>
       <c r="I884" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37711,12 +37711,12 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37837,12 +37837,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37879,12 +37879,12 @@
       <c r="H891" t="inlineStr"/>
       <c r="I891" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38135,12 +38135,12 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38681,12 +38681,12 @@
       <c r="H910" t="inlineStr"/>
       <c r="I910" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38723,12 +38723,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38853,12 +38853,12 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39021,12 +39021,12 @@
       <c r="H918" t="inlineStr"/>
       <c r="I918" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39357,12 +39357,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39445,12 +39445,12 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39487,12 +39487,12 @@
       <c r="H929" t="inlineStr"/>
       <c r="I929" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39697,12 +39697,12 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39781,12 +39781,12 @@
       <c r="H936" t="inlineStr"/>
       <c r="I936" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39823,12 +39823,12 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39949,12 +39949,12 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40331,12 +40331,12 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40415,12 +40415,12 @@
       <c r="H951" t="inlineStr"/>
       <c r="I951" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40457,12 +40457,12 @@
       <c r="H952" t="inlineStr"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40751,12 +40751,12 @@
       <c r="H959" t="inlineStr"/>
       <c r="I959" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41213,12 +41213,12 @@
       <c r="H970" t="inlineStr"/>
       <c r="I970" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41297,12 +41297,12 @@
       <c r="H972" t="inlineStr"/>
       <c r="I972" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41423,12 +41423,12 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41465,12 +41465,12 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41507,12 +41507,12 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41591,12 +41591,12 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
